--- a/Docs/06 Testing/副本标准工时分析管理系统测试课题汇总及处理表 108.xlsx
+++ b/Docs/06 Testing/副本标准工时分析管理系统测试课题汇总及处理表 108.xlsx
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'课题记录  (2)'!$A$3:$H$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'课题记录-源数据 '!$A$3:$T$155</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="82" r:id="rId6"/>
   </pivotCaches>
@@ -3421,7 +3421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4023,81 +4023,43 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="17" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="67" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="67" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 26 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei"/>
-      </font>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <name val="Microsoft YaHei"/>
@@ -4199,8 +4161,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>621712</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>688431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4243,8 +4205,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1273743</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>590893</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>677224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4287,8 +4249,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>462328</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>582438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4352,7 +4314,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7530353" y="33089508"/>
+          <a:off x="6779558" y="32840738"/>
           <a:ext cx="1090557" cy="505727"/>
           <a:chOff x="161924" y="422672"/>
           <a:chExt cx="6267451" cy="2786066"/>
@@ -4466,7 +4428,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7563777" y="19176626"/>
+          <a:off x="6812982" y="19075773"/>
           <a:ext cx="1090084" cy="555252"/>
           <a:chOff x="1979082" y="8911167"/>
           <a:chExt cx="13009526" cy="2694661"/>
@@ -4580,7 +4542,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7586189" y="33696088"/>
+          <a:off x="6835394" y="33433870"/>
           <a:ext cx="1030940" cy="504265"/>
           <a:chOff x="4840946" y="15710647"/>
           <a:chExt cx="13058787" cy="5819774"/>
@@ -4678,8 +4640,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226530</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>556176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4721,8 +4683,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1272243</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>694765</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>739588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4846,7 +4808,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4890,8 +4852,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1273479</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>595313</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>794096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4989,7 +4951,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7569988" y="26005760"/>
+          <a:off x="6819193" y="25851119"/>
           <a:ext cx="1075911" cy="646871"/>
           <a:chOff x="3205370" y="17608826"/>
           <a:chExt cx="3889719" cy="3214139"/>
@@ -5130,8 +5092,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>520476</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>574264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5339,8 +5301,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>621712</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>687972</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5383,8 +5345,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1270916</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>590893</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>723415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5443,7 +5405,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8018377" y="89273042"/>
+          <a:off x="7267582" y="88930142"/>
           <a:ext cx="1382059" cy="1051671"/>
           <a:chOff x="2409265" y="85687647"/>
           <a:chExt cx="15275038" cy="8592362"/>
@@ -5565,8 +5527,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7670722" y="90515911"/>
-          <a:ext cx="2026104" cy="399183"/>
+          <a:off x="6919927" y="90173011"/>
+          <a:ext cx="2026104" cy="395373"/>
           <a:chOff x="2408208" y="88151179"/>
           <a:chExt cx="15167265" cy="9152865"/>
         </a:xfrm>
@@ -5687,8 +5649,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7681391" y="91134193"/>
-          <a:ext cx="2125867" cy="282576"/>
+          <a:off x="6930596" y="90791293"/>
+          <a:ext cx="2125867" cy="292101"/>
           <a:chOff x="993913" y="84938151"/>
           <a:chExt cx="15238095" cy="8190476"/>
         </a:xfrm>
@@ -5793,8 +5755,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2567608</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>232176</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>310163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5853,8 +5815,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7695194" y="92090104"/>
-          <a:ext cx="2415760" cy="210794"/>
+          <a:off x="6944399" y="91762892"/>
+          <a:ext cx="2415760" cy="220319"/>
           <a:chOff x="2429565" y="93841957"/>
           <a:chExt cx="15238095" cy="8571428"/>
         </a:xfrm>
@@ -5975,7 +5937,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7022886" y="14401853"/>
+          <a:off x="7022886" y="92197570"/>
           <a:ext cx="2575913" cy="225935"/>
           <a:chOff x="0" y="93786738"/>
           <a:chExt cx="18887425" cy="8571428"/>
@@ -6153,8 +6115,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7773681" y="93562607"/>
-          <a:ext cx="2880712" cy="1145"/>
+          <a:off x="7022886" y="93237636"/>
+          <a:ext cx="2575913" cy="1145"/>
           <a:chOff x="0" y="93786738"/>
           <a:chExt cx="18887425" cy="8571428"/>
         </a:xfrm>
@@ -6315,8 +6277,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35378</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>128226</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>1766527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6374,8 +6336,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7773681" y="92739882"/>
-          <a:ext cx="2880712" cy="0"/>
+          <a:off x="7022886" y="92417153"/>
+          <a:ext cx="2575913" cy="0"/>
           <a:chOff x="0" y="93786738"/>
           <a:chExt cx="18887425" cy="8571428"/>
         </a:xfrm>
@@ -6536,8 +6498,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2694016</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>135288</xdr:rowOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>1190758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6580,8 +6542,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2695337</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>150546</xdr:rowOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>1003567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12464,51 +12426,51 @@
     <dataField name="数量" fld="0" subtotal="count" baseField="11" baseItem="3"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="27">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="10">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="4">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -12522,7 +12484,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12899,7 +12861,7 @@
   <dimension ref="F3:G10"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -12981,14 +12943,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -13120,7 +13081,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="117" customFormat="1" ht="101.4" hidden="1" customHeight="1">
+    <row r="4" spans="1:20" s="117" customFormat="1" ht="101.4" customHeight="1">
       <c r="A4" s="144">
         <v>1</v>
       </c>
@@ -13162,7 +13123,7 @@
       <c r="S4" s="153"/>
       <c r="T4" s="153"/>
     </row>
-    <row r="5" spans="1:20" s="117" customFormat="1" ht="101.4" hidden="1" customHeight="1">
+    <row r="5" spans="1:20" s="117" customFormat="1" ht="101.4" customHeight="1">
       <c r="A5" s="132">
         <v>2</v>
       </c>
@@ -13282,7 +13243,7 @@
       <c r="S7" s="153"/>
       <c r="T7" s="153"/>
     </row>
-    <row r="8" spans="1:20" s="111" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="8" spans="1:20" s="111" customFormat="1" ht="58.5" customHeight="1">
       <c r="A8" s="132">
         <v>5</v>
       </c>
@@ -13328,7 +13289,7 @@
       <c r="S8" s="159"/>
       <c r="T8" s="159"/>
     </row>
-    <row r="9" spans="1:20" s="111" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="9" spans="1:20" s="111" customFormat="1" ht="58.5" customHeight="1">
       <c r="A9" s="132">
         <v>6</v>
       </c>
@@ -13425,7 +13386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="111" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="11" spans="1:20" s="111" customFormat="1" ht="58.5" customHeight="1">
       <c r="A11" s="132">
         <v>8</v>
       </c>
@@ -13471,7 +13432,7 @@
       <c r="S11" s="159"/>
       <c r="T11" s="159"/>
     </row>
-    <row r="12" spans="1:20" s="111" customFormat="1" ht="78.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:20" s="111" customFormat="1" ht="78.75" customHeight="1">
       <c r="A12" s="132">
         <v>9</v>
       </c>
@@ -13515,7 +13476,7 @@
       <c r="S12" s="159"/>
       <c r="T12" s="159"/>
     </row>
-    <row r="13" spans="1:20" s="65" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="13" spans="1:20" s="65" customFormat="1" ht="58.5" customHeight="1">
       <c r="A13" s="132">
         <v>10</v>
       </c>
@@ -13557,7 +13518,7 @@
       <c r="S13" s="159"/>
       <c r="T13" s="159"/>
     </row>
-    <row r="14" spans="1:20" s="65" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="14" spans="1:20" s="65" customFormat="1" ht="58.5" customHeight="1">
       <c r="A14" s="132">
         <v>11</v>
       </c>
@@ -13645,7 +13606,7 @@
       <c r="S15" s="159"/>
       <c r="T15" s="159"/>
     </row>
-    <row r="16" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="16" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A16" s="132">
         <v>13</v>
       </c>
@@ -13693,7 +13654,7 @@
       <c r="S16" s="159"/>
       <c r="T16" s="159"/>
     </row>
-    <row r="17" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="17" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A17" s="132">
         <v>14</v>
       </c>
@@ -13737,7 +13698,7 @@
       <c r="S17" s="159"/>
       <c r="T17" s="159"/>
     </row>
-    <row r="18" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="18" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A18" s="132">
         <v>15</v>
       </c>
@@ -13783,7 +13744,7 @@
       <c r="S18" s="159"/>
       <c r="T18" s="159"/>
     </row>
-    <row r="19" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="19" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A19" s="132">
         <v>16</v>
       </c>
@@ -13829,7 +13790,7 @@
       <c r="S19" s="159"/>
       <c r="T19" s="159"/>
     </row>
-    <row r="20" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="20" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A20" s="132">
         <v>17</v>
       </c>
@@ -13873,7 +13834,7 @@
       <c r="S20" s="159"/>
       <c r="T20" s="159"/>
     </row>
-    <row r="21" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="21" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A21" s="132">
         <v>18</v>
       </c>
@@ -13917,7 +13878,7 @@
       <c r="S21" s="159"/>
       <c r="T21" s="159"/>
     </row>
-    <row r="22" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="22" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A22" s="132">
         <v>19</v>
       </c>
@@ -13961,7 +13922,7 @@
       <c r="S22" s="159"/>
       <c r="T22" s="159"/>
     </row>
-    <row r="23" spans="1:20" s="111" customFormat="1" ht="69" hidden="1" customHeight="1">
+    <row r="23" spans="1:20" s="111" customFormat="1" ht="69" customHeight="1">
       <c r="A23" s="132">
         <v>20</v>
       </c>
@@ -14056,7 +14017,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="25" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A25" s="132">
         <v>22</v>
       </c>
@@ -14098,7 +14059,7 @@
       <c r="S25" s="159"/>
       <c r="T25" s="159"/>
     </row>
-    <row r="26" spans="1:20" s="111" customFormat="1" ht="84" hidden="1" customHeight="1">
+    <row r="26" spans="1:20" s="111" customFormat="1" ht="84" customHeight="1">
       <c r="A26" s="132">
         <v>23</v>
       </c>
@@ -14246,7 +14207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="111" customFormat="1" ht="63" hidden="1" customHeight="1">
+    <row r="29" spans="1:20" s="111" customFormat="1" ht="63" customHeight="1">
       <c r="A29" s="132">
         <v>26</v>
       </c>
@@ -14290,7 +14251,7 @@
       <c r="S29" s="159"/>
       <c r="T29" s="159"/>
     </row>
-    <row r="30" spans="1:20" s="111" customFormat="1" ht="106.5" hidden="1" customHeight="1">
+    <row r="30" spans="1:20" s="111" customFormat="1" ht="106.5" customHeight="1">
       <c r="A30" s="132">
         <v>27</v>
       </c>
@@ -14334,7 +14295,7 @@
       <c r="S30" s="159"/>
       <c r="T30" s="159"/>
     </row>
-    <row r="31" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="31" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A31" s="132">
         <v>28</v>
       </c>
@@ -14376,7 +14337,7 @@
       <c r="S31" s="159"/>
       <c r="T31" s="159"/>
     </row>
-    <row r="32" spans="1:20" s="111" customFormat="1" ht="67.5" hidden="1" customHeight="1">
+    <row r="32" spans="1:20" s="111" customFormat="1" ht="67.5" customHeight="1">
       <c r="A32" s="132">
         <v>29</v>
       </c>
@@ -14420,7 +14381,7 @@
       <c r="S32" s="159"/>
       <c r="T32" s="159"/>
     </row>
-    <row r="33" spans="1:20" s="111" customFormat="1" ht="71.25" hidden="1" customHeight="1">
+    <row r="33" spans="1:20" s="111" customFormat="1" ht="71.25" customHeight="1">
       <c r="A33" s="132">
         <v>30</v>
       </c>
@@ -14464,7 +14425,7 @@
       <c r="S33" s="159"/>
       <c r="T33" s="159"/>
     </row>
-    <row r="34" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="34" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A34" s="132">
         <v>31</v>
       </c>
@@ -14510,7 +14471,7 @@
       <c r="S34" s="159"/>
       <c r="T34" s="159"/>
     </row>
-    <row r="35" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="35" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A35" s="132">
         <v>32</v>
       </c>
@@ -14560,7 +14521,7 @@
       <c r="S35" s="159"/>
       <c r="T35" s="159"/>
     </row>
-    <row r="36" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="36" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A36" s="132">
         <v>33</v>
       </c>
@@ -14606,7 +14567,7 @@
       <c r="S36" s="159"/>
       <c r="T36" s="159"/>
     </row>
-    <row r="37" spans="1:20" s="111" customFormat="1" ht="61.2" hidden="1" customHeight="1">
+    <row r="37" spans="1:20" s="111" customFormat="1" ht="61.2" customHeight="1">
       <c r="A37" s="132">
         <v>34</v>
       </c>
@@ -14652,7 +14613,7 @@
       <c r="S37" s="159"/>
       <c r="T37" s="159"/>
     </row>
-    <row r="38" spans="1:20" s="65" customFormat="1" ht="78.75" hidden="1" customHeight="1">
+    <row r="38" spans="1:20" s="65" customFormat="1" ht="78.75" customHeight="1">
       <c r="A38" s="132">
         <v>35</v>
       </c>
@@ -14694,7 +14655,7 @@
       <c r="S38" s="159"/>
       <c r="T38" s="159"/>
     </row>
-    <row r="39" spans="1:20" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="39" spans="1:20" s="65" customFormat="1" ht="47.25" customHeight="1">
       <c r="A39" s="132">
         <v>36</v>
       </c>
@@ -14738,7 +14699,7 @@
       <c r="S39" s="159"/>
       <c r="T39" s="159"/>
     </row>
-    <row r="40" spans="1:20" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="40" spans="1:20" s="65" customFormat="1" ht="47.25" customHeight="1">
       <c r="A40" s="132">
         <v>37</v>
       </c>
@@ -14782,7 +14743,7 @@
       <c r="S40" s="159"/>
       <c r="T40" s="159"/>
     </row>
-    <row r="41" spans="1:20" s="65" customFormat="1" ht="62.25" hidden="1" customHeight="1">
+    <row r="41" spans="1:20" s="65" customFormat="1" ht="62.25" customHeight="1">
       <c r="A41" s="132">
         <v>38</v>
       </c>
@@ -14824,7 +14785,7 @@
       <c r="S41" s="159"/>
       <c r="T41" s="159"/>
     </row>
-    <row r="42" spans="1:20" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="42" spans="1:20" s="65" customFormat="1" ht="47.25" customHeight="1">
       <c r="A42" s="132">
         <v>39</v>
       </c>
@@ -14866,7 +14827,7 @@
       <c r="S42" s="159"/>
       <c r="T42" s="159"/>
     </row>
-    <row r="43" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="43" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A43" s="132">
         <v>40</v>
       </c>
@@ -14908,7 +14869,7 @@
       <c r="S43" s="159"/>
       <c r="T43" s="159"/>
     </row>
-    <row r="44" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="44" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A44" s="132">
         <v>41</v>
       </c>
@@ -14950,7 +14911,7 @@
       <c r="S44" s="159"/>
       <c r="T44" s="159"/>
     </row>
-    <row r="45" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="45" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A45" s="132">
         <v>42</v>
       </c>
@@ -14992,7 +14953,7 @@
       <c r="S45" s="159"/>
       <c r="T45" s="159"/>
     </row>
-    <row r="46" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="46" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A46" s="132">
         <v>43</v>
       </c>
@@ -15036,7 +14997,7 @@
       <c r="S46" s="159"/>
       <c r="T46" s="159"/>
     </row>
-    <row r="47" spans="1:20" s="111" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="47" spans="1:20" s="111" customFormat="1" ht="47.25" customHeight="1">
       <c r="A47" s="132">
         <v>44</v>
       </c>
@@ -15080,7 +15041,7 @@
       <c r="S47" s="159"/>
       <c r="T47" s="159"/>
     </row>
-    <row r="48" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="48" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A48" s="132">
         <v>45</v>
       </c>
@@ -15120,7 +15081,7 @@
       <c r="S48" s="159"/>
       <c r="T48" s="159"/>
     </row>
-    <row r="49" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="49" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A49" s="132">
         <v>46</v>
       </c>
@@ -15162,7 +15123,7 @@
       <c r="S49" s="159"/>
       <c r="T49" s="159"/>
     </row>
-    <row r="50" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="50" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A50" s="132">
         <v>47</v>
       </c>
@@ -15202,7 +15163,7 @@
       <c r="S50" s="159"/>
       <c r="T50" s="159"/>
     </row>
-    <row r="51" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="51" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A51" s="132">
         <v>48</v>
       </c>
@@ -15242,7 +15203,7 @@
       <c r="S51" s="159"/>
       <c r="T51" s="159"/>
     </row>
-    <row r="52" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="52" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A52" s="132">
         <v>49</v>
       </c>
@@ -15282,7 +15243,7 @@
       <c r="S52" s="159"/>
       <c r="T52" s="159"/>
     </row>
-    <row r="53" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="53" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A53" s="132">
         <v>50</v>
       </c>
@@ -15328,7 +15289,7 @@
       <c r="S53" s="159"/>
       <c r="T53" s="159"/>
     </row>
-    <row r="54" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="54" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A54" s="132">
         <v>51</v>
       </c>
@@ -15374,7 +15335,7 @@
       <c r="S54" s="159"/>
       <c r="T54" s="159"/>
     </row>
-    <row r="55" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="55" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A55" s="132">
         <v>52</v>
       </c>
@@ -15416,7 +15377,7 @@
       <c r="S55" s="159"/>
       <c r="T55" s="159"/>
     </row>
-    <row r="56" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="56" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A56" s="132">
         <v>53</v>
       </c>
@@ -15462,7 +15423,7 @@
       <c r="S56" s="159"/>
       <c r="T56" s="159"/>
     </row>
-    <row r="57" spans="1:20" s="17" customFormat="1" ht="75.599999999999994" hidden="1" customHeight="1">
+    <row r="57" spans="1:20" s="17" customFormat="1" ht="75.599999999999994" customHeight="1">
       <c r="A57" s="132">
         <v>54</v>
       </c>
@@ -15506,7 +15467,7 @@
       <c r="S57" s="159"/>
       <c r="T57" s="159"/>
     </row>
-    <row r="58" spans="1:20" s="17" customFormat="1" ht="78.75" hidden="1" customHeight="1">
+    <row r="58" spans="1:20" s="17" customFormat="1" ht="78.75" customHeight="1">
       <c r="A58" s="132">
         <v>55</v>
       </c>
@@ -15552,7 +15513,7 @@
       <c r="S58" s="159"/>
       <c r="T58" s="159"/>
     </row>
-    <row r="59" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="59" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A59" s="132">
         <v>56</v>
       </c>
@@ -15596,7 +15557,7 @@
       <c r="S59" s="159"/>
       <c r="T59" s="159"/>
     </row>
-    <row r="60" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="60" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A60" s="132">
         <v>57</v>
       </c>
@@ -15638,7 +15599,7 @@
       <c r="S60" s="159"/>
       <c r="T60" s="159"/>
     </row>
-    <row r="61" spans="1:20" s="17" customFormat="1" ht="62.4" hidden="1">
+    <row r="61" spans="1:20" s="17" customFormat="1" ht="62.4">
       <c r="A61" s="132">
         <v>58</v>
       </c>
@@ -15680,7 +15641,7 @@
       <c r="S61" s="159"/>
       <c r="T61" s="159"/>
     </row>
-    <row r="62" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="62" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A62" s="132">
         <v>59</v>
       </c>
@@ -15722,7 +15683,7 @@
       <c r="S62" s="159"/>
       <c r="T62" s="159"/>
     </row>
-    <row r="63" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="63" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A63" s="132">
         <v>60</v>
       </c>
@@ -15764,7 +15725,7 @@
       <c r="S63" s="159"/>
       <c r="T63" s="159"/>
     </row>
-    <row r="64" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="64" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A64" s="132">
         <v>61</v>
       </c>
@@ -15804,7 +15765,7 @@
       <c r="S64" s="159"/>
       <c r="T64" s="159"/>
     </row>
-    <row r="65" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="65" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A65" s="132">
         <v>62</v>
       </c>
@@ -15842,7 +15803,7 @@
       <c r="S65" s="159"/>
       <c r="T65" s="159"/>
     </row>
-    <row r="66" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="66" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A66" s="132">
         <v>63</v>
       </c>
@@ -15884,7 +15845,7 @@
       <c r="S66" s="159"/>
       <c r="T66" s="159"/>
     </row>
-    <row r="67" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="67" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A67" s="132">
         <v>64</v>
       </c>
@@ -15926,7 +15887,7 @@
       <c r="S67" s="159"/>
       <c r="T67" s="159"/>
     </row>
-    <row r="68" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="68" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A68" s="132">
         <v>65</v>
       </c>
@@ -15966,7 +15927,7 @@
       <c r="S68" s="159"/>
       <c r="T68" s="159"/>
     </row>
-    <row r="69" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="69" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A69" s="132">
         <v>66</v>
       </c>
@@ -16006,7 +15967,7 @@
       <c r="S69" s="159"/>
       <c r="T69" s="159"/>
     </row>
-    <row r="70" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="70" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A70" s="132">
         <v>67</v>
       </c>
@@ -16090,7 +16051,7 @@
       <c r="S71" s="159"/>
       <c r="T71" s="159"/>
     </row>
-    <row r="72" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="72" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A72" s="132">
         <v>69</v>
       </c>
@@ -16132,7 +16093,7 @@
       <c r="S72" s="159"/>
       <c r="T72" s="159"/>
     </row>
-    <row r="73" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="73" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A73" s="132">
         <v>70</v>
       </c>
@@ -16172,7 +16133,7 @@
       <c r="S73" s="159"/>
       <c r="T73" s="159"/>
     </row>
-    <row r="74" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="74" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A74" s="132">
         <v>71</v>
       </c>
@@ -16221,7 +16182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="75" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A75" s="132">
         <v>72</v>
       </c>
@@ -16261,7 +16222,7 @@
       <c r="S75" s="159"/>
       <c r="T75" s="159"/>
     </row>
-    <row r="76" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="76" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A76" s="132">
         <v>73</v>
       </c>
@@ -16301,7 +16262,7 @@
       <c r="S76" s="159"/>
       <c r="T76" s="159"/>
     </row>
-    <row r="77" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="77" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A77" s="132">
         <v>74</v>
       </c>
@@ -16347,7 +16308,7 @@
       <c r="S77" s="159"/>
       <c r="T77" s="159"/>
     </row>
-    <row r="78" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="78" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A78" s="132">
         <v>75</v>
       </c>
@@ -16435,7 +16396,7 @@
       <c r="S79" s="159"/>
       <c r="T79" s="159"/>
     </row>
-    <row r="80" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="80" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A80" s="132">
         <v>77</v>
       </c>
@@ -16521,7 +16482,7 @@
       <c r="S81" s="159"/>
       <c r="T81" s="159"/>
     </row>
-    <row r="82" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="82" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A82" s="132">
         <v>79</v>
       </c>
@@ -16563,7 +16524,7 @@
       <c r="S82" s="159"/>
       <c r="T82" s="159"/>
     </row>
-    <row r="83" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="83" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A83" s="132">
         <v>80</v>
       </c>
@@ -16603,7 +16564,7 @@
       <c r="S83" s="159"/>
       <c r="T83" s="159"/>
     </row>
-    <row r="84" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="84" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A84" s="144">
         <v>81</v>
       </c>
@@ -16696,7 +16657,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="86" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A86" s="132">
         <v>83</v>
       </c>
@@ -16738,7 +16699,7 @@
       <c r="S86" s="159"/>
       <c r="T86" s="159"/>
     </row>
-    <row r="87" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="87" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A87" s="132">
         <v>84</v>
       </c>
@@ -16788,7 +16749,7 @@
       <c r="S87" s="159"/>
       <c r="T87" s="159"/>
     </row>
-    <row r="88" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="88" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A88" s="132">
         <v>85</v>
       </c>
@@ -16830,7 +16791,7 @@
       <c r="S88" s="159"/>
       <c r="T88" s="159"/>
     </row>
-    <row r="89" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="89" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A89" s="132">
         <v>86</v>
       </c>
@@ -16870,7 +16831,7 @@
       <c r="S89" s="159"/>
       <c r="T89" s="159"/>
     </row>
-    <row r="90" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="90" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A90" s="132">
         <v>87</v>
       </c>
@@ -16914,7 +16875,7 @@
       <c r="S90" s="159"/>
       <c r="T90" s="159"/>
     </row>
-    <row r="91" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="91" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A91" s="132">
         <v>88</v>
       </c>
@@ -16956,7 +16917,7 @@
       <c r="S91" s="159"/>
       <c r="T91" s="159"/>
     </row>
-    <row r="92" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="92" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A92" s="132">
         <v>89</v>
       </c>
@@ -16996,7 +16957,7 @@
       <c r="S92" s="159"/>
       <c r="T92" s="159"/>
     </row>
-    <row r="93" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="93" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A93" s="132">
         <v>90</v>
       </c>
@@ -17038,7 +16999,7 @@
       <c r="S93" s="159"/>
       <c r="T93" s="159"/>
     </row>
-    <row r="94" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="94" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A94" s="132">
         <v>91</v>
       </c>
@@ -17080,7 +17041,7 @@
       <c r="S94" s="159"/>
       <c r="T94" s="159"/>
     </row>
-    <row r="95" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="95" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A95" s="144">
         <v>92</v>
       </c>
@@ -17221,7 +17182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="98" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A98" s="132">
         <v>95</v>
       </c>
@@ -17261,7 +17222,7 @@
       <c r="S98" s="159"/>
       <c r="T98" s="159"/>
     </row>
-    <row r="99" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="99" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A99" s="132">
         <v>96</v>
       </c>
@@ -17307,7 +17268,7 @@
       <c r="S99" s="159"/>
       <c r="T99" s="159"/>
     </row>
-    <row r="100" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="100" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A100" s="132">
         <v>97</v>
       </c>
@@ -17353,7 +17314,7 @@
       <c r="S100" s="159"/>
       <c r="T100" s="159"/>
     </row>
-    <row r="101" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="101" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A101" s="132">
         <v>98</v>
       </c>
@@ -17450,7 +17411,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="103" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A103" s="132">
         <v>100</v>
       </c>
@@ -17490,7 +17451,7 @@
       <c r="S103" s="159"/>
       <c r="T103" s="159"/>
     </row>
-    <row r="104" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="104" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A104" s="132">
         <v>101</v>
       </c>
@@ -17530,7 +17491,7 @@
       <c r="S104" s="159"/>
       <c r="T104" s="159"/>
     </row>
-    <row r="105" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="105" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A105" s="132">
         <v>102</v>
       </c>
@@ -17574,7 +17535,7 @@
       <c r="S105" s="159"/>
       <c r="T105" s="159"/>
     </row>
-    <row r="106" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="106" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A106" s="132">
         <v>103</v>
       </c>
@@ -17614,7 +17575,7 @@
       <c r="S106" s="159"/>
       <c r="T106" s="159"/>
     </row>
-    <row r="107" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="107" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A107" s="132">
         <v>104</v>
       </c>
@@ -17662,7 +17623,7 @@
       <c r="S107" s="159"/>
       <c r="T107" s="159"/>
     </row>
-    <row r="108" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="108" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A108" s="132">
         <v>105</v>
       </c>
@@ -17704,7 +17665,7 @@
       <c r="S108" s="159"/>
       <c r="T108" s="159"/>
     </row>
-    <row r="109" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="109" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A109" s="132">
         <v>106</v>
       </c>
@@ -17746,7 +17707,7 @@
       <c r="S109" s="159"/>
       <c r="T109" s="159"/>
     </row>
-    <row r="110" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="110" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A110" s="132">
         <v>107</v>
       </c>
@@ -17837,7 +17798,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="112" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A112" s="132">
         <v>109</v>
       </c>
@@ -17879,7 +17840,7 @@
       <c r="S112" s="159"/>
       <c r="T112" s="159"/>
     </row>
-    <row r="113" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="113" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A113" s="132">
         <v>110</v>
       </c>
@@ -17921,7 +17882,7 @@
       <c r="S113" s="159"/>
       <c r="T113" s="159"/>
     </row>
-    <row r="114" spans="1:20" s="17" customFormat="1" ht="78" hidden="1" customHeight="1">
+    <row r="114" spans="1:20" s="17" customFormat="1" ht="78" customHeight="1">
       <c r="A114" s="132">
         <v>111</v>
       </c>
@@ -17967,43 +17928,43 @@
       <c r="S114" s="159"/>
       <c r="T114" s="159"/>
     </row>
-    <row r="115" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A115" s="132">
+    <row r="115" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A115" s="209">
         <v>112</v>
       </c>
-      <c r="B115" s="161" t="s">
+      <c r="B115" s="210" t="s">
         <v>271</v>
       </c>
-      <c r="C115" s="122" t="s">
+      <c r="C115" s="211" t="s">
         <v>238</v>
       </c>
-      <c r="D115" s="124"/>
-      <c r="E115" s="129" t="s">
+      <c r="D115" s="212"/>
+      <c r="E115" s="213" t="s">
         <v>273</v>
       </c>
-      <c r="F115" s="129" t="s">
+      <c r="F115" s="213" t="s">
         <v>272</v>
       </c>
-      <c r="G115" s="154">
+      <c r="G115" s="214">
         <v>43822</v>
       </c>
-      <c r="H115" s="131"/>
-      <c r="I115" s="132"/>
-      <c r="J115" s="132" t="s">
+      <c r="H115" s="215"/>
+      <c r="I115" s="209"/>
+      <c r="J115" s="209" t="s">
         <v>274</v>
       </c>
-      <c r="K115" s="154">
+      <c r="K115" s="214">
         <v>43833</v>
       </c>
-      <c r="L115" s="133" t="s">
+      <c r="L115" s="216" t="s">
         <v>121</v>
       </c>
-      <c r="M115" s="133"/>
-      <c r="N115" s="157"/>
-      <c r="O115" s="132" t="s">
+      <c r="M115" s="216"/>
+      <c r="N115" s="217"/>
+      <c r="O115" s="209" t="s">
         <v>374</v>
       </c>
-      <c r="P115" s="126" t="s">
+      <c r="P115" s="218" t="s">
         <v>250</v>
       </c>
       <c r="Q115" s="160"/>
@@ -18011,7 +17972,7 @@
       <c r="S115" s="159"/>
       <c r="T115" s="159"/>
     </row>
-    <row r="116" spans="1:20" s="58" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="116" spans="1:20" s="58" customFormat="1" ht="58.5" customHeight="1">
       <c r="A116" s="144">
         <v>113</v>
       </c>
@@ -18057,7 +18018,7 @@
       <c r="S116" s="153"/>
       <c r="T116" s="153"/>
     </row>
-    <row r="117" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="117" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A117" s="132">
         <v>114</v>
       </c>
@@ -18099,7 +18060,7 @@
       <c r="S117" s="159"/>
       <c r="T117" s="159"/>
     </row>
-    <row r="118" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="118" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A118" s="132">
         <v>115</v>
       </c>
@@ -18149,7 +18110,7 @@
       <c r="S118" s="159"/>
       <c r="T118" s="159"/>
     </row>
-    <row r="119" spans="1:20" s="17" customFormat="1" ht="105.75" hidden="1" customHeight="1">
+    <row r="119" spans="1:20" s="17" customFormat="1" ht="105.75" customHeight="1">
       <c r="A119" s="132">
         <v>116</v>
       </c>
@@ -18191,7 +18152,7 @@
       <c r="S119" s="159"/>
       <c r="T119" s="159"/>
     </row>
-    <row r="120" spans="1:20" s="17" customFormat="1" ht="35.4" hidden="1" customHeight="1">
+    <row r="120" spans="1:20" s="17" customFormat="1" ht="35.4" customHeight="1">
       <c r="A120" s="132">
         <v>117</v>
       </c>
@@ -18235,7 +18196,7 @@
       <c r="S120" s="159"/>
       <c r="T120" s="159"/>
     </row>
-    <row r="121" spans="1:20" s="17" customFormat="1" ht="40.200000000000003" hidden="1" customHeight="1">
+    <row r="121" spans="1:20" s="17" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A121" s="132">
         <v>118</v>
       </c>
@@ -18275,7 +18236,7 @@
       <c r="S121" s="159"/>
       <c r="T121" s="159"/>
     </row>
-    <row r="122" spans="1:20" s="17" customFormat="1" ht="39.6" hidden="1" customHeight="1">
+    <row r="122" spans="1:20" s="17" customFormat="1" ht="39.6" customHeight="1">
       <c r="A122" s="132">
         <v>119</v>
       </c>
@@ -18321,7 +18282,7 @@
       <c r="S122" s="159"/>
       <c r="T122" s="159"/>
     </row>
-    <row r="123" spans="1:20" s="17" customFormat="1" ht="31.2" hidden="1" customHeight="1">
+    <row r="123" spans="1:20" s="17" customFormat="1" ht="31.2" customHeight="1">
       <c r="A123" s="132">
         <v>120</v>
       </c>
@@ -18414,7 +18375,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="125" spans="1:20" s="17" customFormat="1" ht="64.5" hidden="1" customHeight="1">
+    <row r="125" spans="1:20" s="17" customFormat="1" ht="64.5" customHeight="1">
       <c r="A125" s="132">
         <v>122</v>
       </c>
@@ -18458,7 +18419,7 @@
       <c r="S125" s="159"/>
       <c r="T125" s="159"/>
     </row>
-    <row r="126" spans="1:20" s="17" customFormat="1" ht="150" hidden="1" customHeight="1">
+    <row r="126" spans="1:20" s="17" customFormat="1" ht="150" customHeight="1">
       <c r="A126" s="132">
         <v>123</v>
       </c>
@@ -18546,7 +18507,7 @@
       <c r="S127" s="159"/>
       <c r="T127" s="159"/>
     </row>
-    <row r="128" spans="1:20" s="17" customFormat="1" ht="112.5" hidden="1" customHeight="1">
+    <row r="128" spans="1:20" s="17" customFormat="1" ht="112.5" customHeight="1">
       <c r="A128" s="132">
         <v>125</v>
       </c>
@@ -18592,7 +18553,7 @@
       <c r="S128" s="159"/>
       <c r="T128" s="159"/>
     </row>
-    <row r="129" spans="1:20" s="58" customFormat="1" ht="45" hidden="1" customHeight="1">
+    <row r="129" spans="1:20" s="58" customFormat="1" ht="45" customHeight="1">
       <c r="A129" s="144">
         <v>126</v>
       </c>
@@ -18677,7 +18638,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="131" spans="1:20" s="116" customFormat="1" ht="26.25" hidden="1" customHeight="1">
+    <row r="131" spans="1:20" s="116" customFormat="1" ht="26.25" customHeight="1">
       <c r="A131" s="132">
         <v>128</v>
       </c>
@@ -18721,7 +18682,7 @@
       <c r="S131" s="159"/>
       <c r="T131" s="159"/>
     </row>
-    <row r="132" spans="1:20" s="116" customFormat="1" ht="46.8" hidden="1">
+    <row r="132" spans="1:20" s="116" customFormat="1" ht="46.8">
       <c r="A132" s="132">
         <v>129</v>
       </c>
@@ -18765,7 +18726,7 @@
       <c r="S132" s="159"/>
       <c r="T132" s="159"/>
     </row>
-    <row r="133" spans="1:20" s="116" customFormat="1" ht="26.25" hidden="1" customHeight="1">
+    <row r="133" spans="1:20" s="116" customFormat="1" ht="26.25" customHeight="1">
       <c r="A133" s="132">
         <v>130</v>
       </c>
@@ -18805,7 +18766,7 @@
       <c r="S133" s="159"/>
       <c r="T133" s="159"/>
     </row>
-    <row r="134" spans="1:20" s="116" customFormat="1" ht="26.25" hidden="1" customHeight="1">
+    <row r="134" spans="1:20" s="116" customFormat="1" ht="26.25" customHeight="1">
       <c r="A134" s="132">
         <v>131</v>
       </c>
@@ -18845,7 +18806,7 @@
       <c r="S134" s="159"/>
       <c r="T134" s="159"/>
     </row>
-    <row r="135" spans="1:20" s="17" customFormat="1" ht="104.4" hidden="1" customHeight="1">
+    <row r="135" spans="1:20" s="17" customFormat="1" ht="104.4" customHeight="1">
       <c r="A135" s="132">
         <v>132</v>
       </c>
@@ -18887,7 +18848,7 @@
       <c r="S135" s="159"/>
       <c r="T135" s="159"/>
     </row>
-    <row r="136" spans="1:20" s="17" customFormat="1" ht="93.6" hidden="1" customHeight="1">
+    <row r="136" spans="1:20" s="17" customFormat="1" ht="93.6" customHeight="1">
       <c r="A136" s="132">
         <v>133</v>
       </c>
@@ -18978,7 +18939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:20" s="17" customFormat="1" ht="33" hidden="1" customHeight="1">
+    <row r="138" spans="1:20" s="17" customFormat="1" ht="33" customHeight="1">
       <c r="A138" s="132">
         <v>135</v>
       </c>
@@ -19022,7 +18983,7 @@
       <c r="S138" s="159"/>
       <c r="T138" s="159"/>
     </row>
-    <row r="139" spans="1:20" s="17" customFormat="1" ht="24.6" hidden="1" customHeight="1">
+    <row r="139" spans="1:20" s="17" customFormat="1" ht="24.6" customHeight="1">
       <c r="A139" s="132">
         <v>136</v>
       </c>
@@ -19064,7 +19025,7 @@
       <c r="S139" s="159"/>
       <c r="T139" s="159"/>
     </row>
-    <row r="140" spans="1:20" s="17" customFormat="1" ht="32.4" hidden="1" customHeight="1">
+    <row r="140" spans="1:20" s="17" customFormat="1" ht="32.4" customHeight="1">
       <c r="A140" s="132">
         <v>137</v>
       </c>
@@ -19106,7 +19067,7 @@
       <c r="S140" s="159"/>
       <c r="T140" s="159"/>
     </row>
-    <row r="141" spans="1:20" s="17" customFormat="1" ht="31.95" hidden="1" customHeight="1">
+    <row r="141" spans="1:20" s="17" customFormat="1" ht="31.95" customHeight="1">
       <c r="A141" s="132">
         <v>138</v>
       </c>
@@ -19658,14 +19619,7 @@
     </row>
     <row r="192" ht="13.95" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A3:T155">
-    <filterColumn colId="11">
-      <filters blank="1">
-        <filter val="待确定"/>
-        <filter val="新发现课题"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:T155"/>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
@@ -19708,7 +19662,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -20208,7 +20162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
